--- a/docs - PronaFlow (.Net MVC)/Database/data/userpassword.xlsx
+++ b/docs - PronaFlow (.Net MVC)/Database/data/userpassword.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\3-Programming\Workspace\Web\project\pronaflow\PronaFlow_MVC\docs - PronaFlow (.Net MVC)\Database\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F711A8D0-A3AA-47AA-A8D1-F0D0D2BC2560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C2C5B9-6B0B-4D40-911E-D5ED096B3A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6A38F34B-208A-4314-BC1C-AD8B727E05FD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
   <si>
     <t>admin@pronaflow.io</t>
   </si>
@@ -351,16 +351,13 @@
   </si>
   <si>
     <t>$2a$11$JTepwQtWddFscGrQA3xqoOJ7RVwBUJLFhLkOA45E3PTRoxHM757y6</t>
-  </si>
-  <si>
-    <t>(1, 'hash_cua_user_1_sao_chep_tu_file_txt'),</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -368,13 +365,26 @@
       <family val="2"/>
       <charset val="163"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -389,8 +399,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139E65B5-877D-4479-9F7F-8B7FB007CAB6}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -739,21 +751,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E1" t="s">
-        <v>105</v>
+      <c r="D1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E2" t="str">
@@ -762,16 +774,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E3" t="str">
@@ -780,16 +792,16 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E4" t="str">
@@ -798,16 +810,16 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E5" t="str">
@@ -816,16 +828,16 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E6" t="str">
@@ -834,16 +846,16 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E7" t="str">
@@ -1375,5 +1387,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>